--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value221.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value221.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135672482149575</v>
+        <v>1.333379983901978</v>
       </c>
       <c r="B1">
-        <v>1.326744630160383</v>
+        <v>2.455162048339844</v>
       </c>
       <c r="C1">
-        <v>1.308847098415221</v>
+        <v>4.783269882202148</v>
       </c>
       <c r="D1">
-        <v>1.426682476585605</v>
+        <v>2.498782634735107</v>
       </c>
       <c r="E1">
-        <v>1.75419816781278</v>
+        <v>0.9357627630233765</v>
       </c>
     </row>
   </sheetData>
